--- a/bug-report.xlsx
+++ b/bug-report.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Bug Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Category</t>
   </si>
@@ -204,9 +203,6 @@
     <t>#6</t>
   </si>
   <si>
-    <t>Error message. Period exceeds product price</t>
-  </si>
-  <si>
     <t>Error message. Startup fee exceeds total price of the product</t>
   </si>
   <si>
@@ -222,9 +218,6 @@
     <t>1. Go to https://sandbox.2checkout.com/sandbox; 2. Log in(username-milina, password-Projekat2); 3.Go to Products page and click on "Add new Product" button; 4. Enter product name- "product" ,  product price - 10, click on recurring-yes; 5. In startup fee enter 20, in bill every enter 2 and select weeks, in continue billing for enter 3 years and click save ; 5. Go to Products page</t>
   </si>
   <si>
-    <t>1. Go to https://sandbox.2checkout.com/sandbox; 2. Log in(username-milina, password-Projekat2); 3.Go to Products page and click on "Add new Product" button; 4. Enter product name- "product" ,  product price - 10, click on recurring-yes; 5. In startup fee enter 10, in bill every enter 2 and select weeks, in continue billing for enter 3 years and click save ; 5. Go to Products page</t>
-  </si>
-  <si>
     <t>Error message. Invalid weight</t>
   </si>
   <si>
@@ -244,9 +237,6 @@
   </si>
   <si>
     <t>Product image</t>
-  </si>
-  <si>
-    <t>#8</t>
   </si>
   <si>
     <t>Adding product weight</t>
@@ -378,11 +368,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -741,7 +731,7 @@
     <col min="10" max="10" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,11 +759,8 @@
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,14 +786,11 @@
         <v>58</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -826,17 +810,14 @@
         <v>55</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -861,12 +842,9 @@
       <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -891,11 +869,8 @@
       <c r="I5" s="5">
         <v>43967</v>
       </c>
-      <c r="J5" s="5">
-        <v>43967</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -918,17 +893,14 @@
         <v>56</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -939,9 +911,8 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -955,10 +926,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -983,12 +953,9 @@
       <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="10" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1013,11 +980,8 @@
       <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="11" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>39</v>
@@ -1037,20 +1001,17 @@
         <v>52</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1070,17 +1031,14 @@
         <v>59</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1100,17 +1058,14 @@
         <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1135,11 +1090,8 @@
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="15" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -1167,12 +1119,9 @@
       <c r="I15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="16" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1197,12 +1146,9 @@
       <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="17" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1227,11 +1173,8 @@
       <c r="I17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="18" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1182,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
@@ -1259,11 +1202,8 @@
       <c r="I18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1271,19 +1211,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
